--- a/biology/Zoologie/Fadet_tyrrhénien/Fadet_tyrrhénien.xlsx
+++ b/biology/Zoologie/Fadet_tyrrhénien/Fadet_tyrrhénien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fadet_tyrrh%C3%A9nien</t>
+          <t>Fadet_tyrrhénien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenonympha corinna
 Le Fadet tyrrhénien (Coenonympha corinna) est une espèce de lépidoptères appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre  Coenonympha.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fadet_tyrrh%C3%A9nien</t>
+          <t>Fadet_tyrrhénien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenonympha corinna nommé par Jakob Hübneren 1804.
-Noms vernaculaires
-Le Fadet tyrrhénien se nomme Corsican Heath en anglais[1].
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fadet_tyrrh%C3%A9nien</t>
+          <t>Fadet_tyrrhénien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce petit papillon de couleur orangée à étroite bordure marron avec un discret ocelle noir à l'apex des antérieures, et, chez la femelle une ligne d'ocelles vestigiaux sous forme de points foncés aux postérieures.
-Le revers est aux antérieures de la même couleur orangée avec  à l'apex l'ocelle noir pupillé de blanc cerclé de jaune, et une ornementation caractéristique aux postérieures : une bande postdiscale claire irrégulière et une ligne d'ocelles noirs pupillés de blanc cerclé de jaune, parfois vestigiaux ou parfois absents.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fadet tyrrhénien se nomme Corsican Heath en anglais.
 </t>
         </is>
       </c>
@@ -560,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fadet_tyrrh%C3%A9nien</t>
+          <t>Fadet_tyrrhénien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,15 +592,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en plusieurs générations, de mai à septembre[2].
-Plantes hôtes
-Ses plantes hôtes sont des graminées.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce petit papillon de couleur orangée à étroite bordure marron avec un discret ocelle noir à l'apex des antérieures, et, chez la femelle une ligne d'ocelles vestigiaux sous forme de points foncés aux postérieures.
+Le revers est aux antérieures de la même couleur orangée avec  à l'apex l'ocelle noir pupillé de blanc cerclé de jaune, et une ornementation caractéristique aux postérieures : une bande postdiscale claire irrégulière et une ligne d'ocelles noirs pupillés de blanc cerclé de jaune, parfois vestigiaux ou parfois absents.
 </t>
         </is>
       </c>
@@ -594,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fadet_tyrrh%C3%A9nien</t>
+          <t>Fadet_tyrrhénien</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,18 +626,164 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en plusieurs générations, de mai à septembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fadet_tyrrhénien</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_tyrrh%C3%A9nien</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des graminées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fadet_tyrrhénien</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_tyrrh%C3%A9nien</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Corse, en Sardaigne et à Capraia[3].
-Sur l'île d'Elbe, quelques îles voisines et les massifs côtiers de Toscane vole une espèce proche, Coenonympha elbana[3].
-Il est présent dans les deux départements de Corse[4],[5].
-Biotope
-Il réside dans les lieux herbus.
-Protection
-Il ne bénéficie pas de statut de protection particulier[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Corse, en Sardaigne et à Capraia.
+Sur l'île d'Elbe, quelques îles voisines et les massifs côtiers de Toscane vole une espèce proche, Coenonympha elbana.
+Il est présent dans les deux départements de Corse,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fadet_tyrrhénien</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_tyrrh%C3%A9nien</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les lieux herbus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fadet_tyrrhénien</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_tyrrh%C3%A9nien</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ne bénéficie pas de statut de protection particulier.
 </t>
         </is>
       </c>
